--- a/EEG_recording/Record.xlsx
+++ b/EEG_recording/Record.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Motorimagery_for_gamification\EEG_recording\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B7C3134-D0F2-4319-9B3A-DF5E491DC212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35649246-84BA-4F88-9711-66598CB7744D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{84EC57BB-E480-4518-9106-26998027533E}"/>
+    <workbookView xWindow="28680" yWindow="60" windowWidth="29040" windowHeight="15720" xr2:uid="{84EC57BB-E480-4518-9106-26998027533E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="56">
   <si>
     <t>Name</t>
   </si>
@@ -111,21 +110,9 @@
     <t>Data</t>
   </si>
   <si>
-    <t>Fathima</t>
-  </si>
-  <si>
-    <t>Game</t>
-  </si>
-  <si>
     <t>Arm</t>
   </si>
   <si>
-    <t>Dune</t>
-  </si>
-  <si>
-    <t>Mehul or Pang</t>
-  </si>
-  <si>
     <t>โฟกัสไม่เต็มที่,ง่วง</t>
   </si>
   <si>
@@ -136,13 +123,91 @@
   </si>
   <si>
     <t>ERD overall</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>ไม่ค่อยโฟกัส</t>
+  </si>
+  <si>
+    <t>tod</t>
+  </si>
+  <si>
+    <t>โฟกัส มีเล่นมือถือ</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Beau</t>
+  </si>
+  <si>
+    <t>session เจ็บหัว มีหลับบ้าง</t>
+  </si>
+  <si>
+    <t>โฟกัสบ้าง หลับบ้าง</t>
+  </si>
+  <si>
+    <t>Suyogya</t>
+  </si>
+  <si>
+    <t>Wan</t>
+  </si>
+  <si>
+    <t>S031</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>หาว ง่วง เผลอหลับ</t>
+  </si>
+  <si>
+    <t>โฟกัสบ้าง แต่ยังไม่เข้าใจtask</t>
+  </si>
+  <si>
+    <t>โฟกัสสูง ตื่นตัวตลอด</t>
+  </si>
+  <si>
+    <t>การลดจำนวนtrials และ block ไม่เป็นผลต่อคลื่น แต่ลดความ fatique</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Payable</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Paid status</t>
+  </si>
+  <si>
+    <t>S032</t>
+  </si>
+  <si>
+    <t>S033</t>
+  </si>
+  <si>
+    <t>Pang</t>
+  </si>
+  <si>
+    <t>Jack</t>
+  </si>
+  <si>
+    <t>ง่วงบ้าง</t>
+  </si>
+  <si>
+    <t>โฟกัสพอควร แต่มีหลุดๆในตอนแรก</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,8 +216,39 @@
       <charset val="222"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="48"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="222"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="222"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -195,8 +291,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -219,19 +321,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
@@ -306,13 +424,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>56028</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>22412</xdr:rowOff>
+      <xdr:rowOff>31937</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>5849469</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>2673086</xdr:rowOff>
+      <xdr:rowOff>2682611</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -341,7 +459,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5233146" y="403412"/>
+          <a:off x="5228103" y="412937"/>
           <a:ext cx="5793441" cy="2650674"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -993,6 +1111,1506 @@
         <a:xfrm>
           <a:off x="17580428" y="14028964"/>
           <a:ext cx="6123215" cy="2639786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>155863</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>69273</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>6044046</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>2689679</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="รูปภาพ 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D419AE1D-FB04-7CBA-1585-AC4267D6D8D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5333999" y="5888182"/>
+          <a:ext cx="5888183" cy="2620406"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>138546</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>61852</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>6096000</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>2614634</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="รูปภาพ 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB5D9D9F-EF65-E636-261B-8AC9CE84856A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11516591" y="5880761"/>
+          <a:ext cx="5957454" cy="2552782"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>138543</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>51953</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>6009408</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1599</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="รูปภาพ 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B05C72B-5FE1-40D9-9901-8CDC5B8E617A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17716498" y="5870862"/>
+          <a:ext cx="5870865" cy="2662671"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>69273</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>73350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>6096000</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>2636440</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="รูปภาพ 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3F5A2F1-E69E-25F3-7F02-1599248155D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5246391" y="16792526"/>
+          <a:ext cx="6026727" cy="2563090"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>67235</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>56030</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>6084793</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>2677503</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="รูปภาพ 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{285E209B-3958-2EBB-437C-9F91D43D9266}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11441206" y="16775206"/>
+          <a:ext cx="6017558" cy="2621473"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>6084794</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>2695023</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="รูปภาพ 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFE3D3D8-F6D9-BEF1-C325-273832E60085}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17649266" y="16752794"/>
+          <a:ext cx="6006352" cy="2661405"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>89647</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>33617</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>6118411</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>2689656</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="รูปภาพ 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A73DFC68-5EFA-B294-B6BF-C8C3708FA4EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5266765" y="19464617"/>
+          <a:ext cx="6028764" cy="2656039"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>56029</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>6129616</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>2624050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="รูปภาพ 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8BD476E-BF6C-4EA9-6C5E-861BF29A6707}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11430000" y="19475824"/>
+          <a:ext cx="6073587" cy="2579226"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>100852</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>67234</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>6129617</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>2655793</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="รูปภาพ 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEC82902-6591-E5B7-3DE2-9B8AAA332EA6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17671676" y="19498234"/>
+          <a:ext cx="6028765" cy="2588559"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>108856</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>68036</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>6078681</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>2684319</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="รูปภาพ 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0784A9C0-8F17-0E55-8D26-E86A4AB44107}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5286992" y="22200672"/>
+          <a:ext cx="5969825" cy="2616283"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>17318</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>69272</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>6147955</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>2701636</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="รูปภาพ 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{187A0B8D-3831-4C95-09D9-742360EC6F1E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11395363" y="22201908"/>
+          <a:ext cx="6130637" cy="2632364"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>17318</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>51954</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>6130636</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>2684572</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="รูปภาพ 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3A4EFD8-53D9-36DE-6AAF-8ED609BEDB64}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17595273" y="22184590"/>
+          <a:ext cx="6113318" cy="2632618"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>103909</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>51955</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>6165273</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>2688971</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="รูปภาพ 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DE26BC2-4DBD-D207-34D6-BACD2E872436}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5282045" y="24903546"/>
+          <a:ext cx="6061364" cy="2637016"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>138545</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>86591</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>6165273</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>2682144</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="รูปภาพ 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9508ECED-8E1E-80EB-455D-D75E40655570}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11516590" y="24938182"/>
+          <a:ext cx="6026728" cy="2595553"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>17318</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>51955</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>6113318</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>2649682</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="รูปภาพ 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69816F7E-DD48-DBF3-4748-25CF028D2E2F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17595273" y="24903546"/>
+          <a:ext cx="6096000" cy="2597727"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>40822</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>68034</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>6136822</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>2735259</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="รูปภาพ 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AD69D51-7FBD-F2DB-F0BB-B8106BC6957D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5211536" y="27663320"/>
+          <a:ext cx="6096000" cy="2667225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>95248</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>27213</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>6136821</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>2710732</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="รูปภาพ 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{054934A3-B553-95A5-B8BD-8F701E227AFA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11457212" y="27622499"/>
+          <a:ext cx="6041573" cy="2683519"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>68036</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>6164036</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>2699523</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="รูปภาพ 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C5A0887-E41F-149B-5BC4-45C7BDD1D228}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17621250" y="27622500"/>
+          <a:ext cx="6096000" cy="2672309"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>122463</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>6109606</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>2707821</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="รูปภาพ 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5CDE49F-6454-114C-D4BF-6B3B155CDC68}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5293177" y="30439178"/>
+          <a:ext cx="5987143" cy="2612572"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>81643</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>40822</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>6109607</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>2707821</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="รูปภาพ 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF89B5FC-867F-9513-108F-2F60B7DD09F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11443607" y="30384751"/>
+          <a:ext cx="6027964" cy="2666999"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>54427</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>6136822</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>2709495</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="รูปภาพ 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EC95A34-BB22-D11F-2928-62874E6A5824}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17607641" y="30425572"/>
+          <a:ext cx="6082395" cy="2627852"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>54429</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>6177643</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>2676558</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="รูปภาพ 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{195ADF1A-F5A5-84E7-374A-8EEC8644C866}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5225143" y="33187821"/>
+          <a:ext cx="6123214" cy="2581308"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>40821</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>6123215</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>2653552</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="รูปภาพ 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E0F9F35-18F2-81B3-8868-A5A8F30F767B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11457214" y="33133392"/>
+          <a:ext cx="6027965" cy="2612731"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>149679</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>40822</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>6150429</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>2641564</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="รูปภาพ 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3255B12E-4CB8-12FB-35A1-BA2DB6A7104B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17702893" y="33133393"/>
+          <a:ext cx="6000750" cy="2600742"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>112058</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>6084793</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>2655794</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="รูปภาพ 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1D581B9-E35C-9750-84D1-F48AEA6D714A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5289176" y="35870029"/>
+          <a:ext cx="5972735" cy="2588559"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>136071</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>6055179</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>2598945</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="รูปภาพ 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38FB6EDC-830B-2460-FDE8-7999C6B6A4A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11498035" y="35868428"/>
+          <a:ext cx="5919108" cy="2544517"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>54429</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>27215</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>6109607</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>2620399</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="รูปภาพ 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E66565D7-8C98-2E01-F48F-013245C47020}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17607643" y="35841215"/>
+          <a:ext cx="6055178" cy="2593184"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>81643</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>40823</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>6123214</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>2707821</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="รูปภาพ 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FA4639C-4824-9A45-2753-AA9CDA9AEEBA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5252357" y="38576252"/>
+          <a:ext cx="6041571" cy="2666998"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>68034</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>81644</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>6068785</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>2612571</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="รูปภาพ 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60C411D8-C371-8B08-C822-18190449A89B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11429998" y="38617073"/>
+          <a:ext cx="6000751" cy="2530927"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>108857</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>40821</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>6109607</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>2639785</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="รูปภาพ 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4BEA284-B93D-B8FF-A2DF-27FDC28CB3F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17662071" y="38576250"/>
+          <a:ext cx="6000750" cy="2598964"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1301,10 +2919,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{617F1BF3-1976-4959-9C68-994FCA745BF7}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:Y16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1314,180 +2932,353 @@
     <col min="3" max="3" width="27" customWidth="1"/>
     <col min="4" max="5" width="81.25" customWidth="1"/>
     <col min="6" max="6" width="81.375" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+    <col min="8" max="8" width="45.125" customWidth="1"/>
+    <col min="9" max="9" width="44.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" ht="214.5" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="9">
+        <v>19</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" s="2"/>
+      <c r="Y2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="214.5" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="9">
+        <v>20</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:25" ht="214.5" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="9">
+        <v>21</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:25" ht="214.5" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="9">
+        <v>22</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:25" ht="214.5" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="9">
+        <v>23</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:25" ht="214.5" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="9">
+        <v>24</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:25" ht="213.75" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="9">
+        <v>25</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:25" ht="214.5" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="C9" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="9">
+        <v>26</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" s="2"/>
     </row>
-    <row r="2" spans="1:6" ht="214.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+    <row r="10" spans="1:25" ht="213.75" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="9">
+        <v>27</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" s="2"/>
     </row>
-    <row r="3" spans="1:6" ht="214.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
+    <row r="11" spans="1:25" ht="214.5" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="9">
+        <v>28</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" s="2"/>
     </row>
-    <row r="4" spans="1:6" ht="214.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+    <row r="12" spans="1:25" ht="216" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="9">
+        <v>29</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" s="2"/>
     </row>
-    <row r="5" spans="1:6" ht="214.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
+    <row r="13" spans="1:25" ht="216" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="9">
+        <v>30</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" s="2"/>
     </row>
-    <row r="6" spans="1:6" ht="214.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+    <row r="14" spans="1:25" ht="214.5" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="9">
+        <v>31</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="I14" s="2"/>
     </row>
-    <row r="7" spans="1:6" ht="214.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
+    <row r="15" spans="1:25" ht="214.5" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A15" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="9">
+        <v>32</v>
+      </c>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
+    <row r="16" spans="1:25" ht="215.25" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A16" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="9">
+        <v>33</v>
+      </c>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/EEG_recording/Record.xlsx
+++ b/EEG_recording/Record.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Motorimagery_for_gamification\EEG_recording\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35649246-84BA-4F88-9711-66598CB7744D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F7368DB-F842-41E2-92D7-6514612B42F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="60" windowWidth="29040" windowHeight="15720" xr2:uid="{84EC57BB-E480-4518-9106-26998027533E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{84EC57BB-E480-4518-9106-26998027533E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Online" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="82">
   <si>
     <t>Name</t>
   </si>
@@ -201,13 +202,91 @@
   </si>
   <si>
     <t>โฟกัสพอควร แต่มีหลุดๆในตอนแรก</t>
+  </si>
+  <si>
+    <t>S01</t>
+  </si>
+  <si>
+    <t>Finetune acc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unity (20 </t>
+  </si>
+  <si>
+    <t>Have problem from server in docker. Get not fully correct rate in unity</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>Actual</t>
+  </si>
+  <si>
+    <t>Predicted</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>undefined</t>
+  </si>
+  <si>
+    <t>S034</t>
+  </si>
+  <si>
+    <t>S035</t>
+  </si>
+  <si>
+    <t>S036</t>
+  </si>
+  <si>
+    <t>Anjana</t>
+  </si>
+  <si>
+    <t>Anuj</t>
+  </si>
+  <si>
+    <t>Game</t>
+  </si>
+  <si>
+    <t>S037</t>
+  </si>
+  <si>
+    <t>Safnas</t>
+  </si>
+  <si>
+    <t>S039</t>
+  </si>
+  <si>
+    <t>S038</t>
+  </si>
+  <si>
+    <t>Srijan</t>
+  </si>
+  <si>
+    <t>S040</t>
+  </si>
+  <si>
+    <t>S041</t>
+  </si>
+  <si>
+    <t>S042</t>
+  </si>
+  <si>
+    <t>Tonson</t>
+  </si>
+  <si>
+    <t>Ochiya</t>
+  </si>
+  <si>
+    <t>Navinda</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -247,8 +326,38 @@
       <charset val="222"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="222"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="222"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="222"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -297,6 +406,21 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -333,10 +457,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -349,10 +476,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="ดี" xfId="1" builtinId="26"/>
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
+    <cellStyle name="ปานกลาง" xfId="3" builtinId="28"/>
+    <cellStyle name="แย่" xfId="2" builtinId="27"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2919,10 +3053,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{617F1BF3-1976-4959-9C68-994FCA745BF7}">
-  <dimension ref="A1:Y16"/>
+  <dimension ref="A1:Y25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3243,13 +3377,13 @@
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:25" ht="214.5" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="2" t="s">
         <v>54</v>
       </c>
       <c r="D15" s="2"/>
@@ -3262,13 +3396,13 @@
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:25" ht="215.25" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D16" s="2"/>
@@ -3280,9 +3414,420 @@
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" t="s">
+        <v>79</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23BF0352-9CB4-48A7-A6BA-CDF701DA9435}">
+  <dimension ref="A1:M31"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.375" customWidth="1"/>
+    <col min="2" max="2" width="26.625" customWidth="1"/>
+    <col min="3" max="3" width="31.375" customWidth="1"/>
+    <col min="4" max="4" width="27.125" customWidth="1"/>
+    <col min="5" max="5" width="36.375" customWidth="1"/>
+    <col min="7" max="7" width="12.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="27" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I5" t="s">
+        <v>64</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="L5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H6" t="s">
+        <v>63</v>
+      </c>
+      <c r="I6" t="s">
+        <v>64</v>
+      </c>
+      <c r="K6" s="2"/>
+      <c r="L6" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="M6" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H7" t="s">
+        <v>63</v>
+      </c>
+      <c r="I7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="L7" s="2">
+        <v>7</v>
+      </c>
+      <c r="M7" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H8" t="s">
+        <v>63</v>
+      </c>
+      <c r="I8" t="s">
+        <v>64</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="L8" s="2">
+        <v>3</v>
+      </c>
+      <c r="M8" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H9" t="s">
+        <v>63</v>
+      </c>
+      <c r="I9" t="s">
+        <v>63</v>
+      </c>
+      <c r="M9" s="2">
+        <f>L7+M7+L8+M8+L5</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H10" t="s">
+        <v>63</v>
+      </c>
+      <c r="I10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H11" t="s">
+        <v>63</v>
+      </c>
+      <c r="I11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H14" t="s">
+        <v>60</v>
+      </c>
+      <c r="I14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H15" t="s">
+        <v>63</v>
+      </c>
+      <c r="I15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H16" t="s">
+        <v>60</v>
+      </c>
+      <c r="I16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H17" t="s">
+        <v>60</v>
+      </c>
+      <c r="I17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H18" t="s">
+        <v>60</v>
+      </c>
+      <c r="I18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H19" t="s">
+        <v>60</v>
+      </c>
+      <c r="I19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H20" t="s">
+        <v>60</v>
+      </c>
+      <c r="I20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H21" t="s">
+        <v>60</v>
+      </c>
+      <c r="I21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H22" t="s">
+        <v>60</v>
+      </c>
+      <c r="I22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H23" t="s">
+        <v>60</v>
+      </c>
+      <c r="I23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H24" t="s">
+        <v>63</v>
+      </c>
+      <c r="I24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H25" t="s">
+        <v>60</v>
+      </c>
+      <c r="I25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H26" t="s">
+        <v>63</v>
+      </c>
+      <c r="I26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H27" t="s">
+        <v>60</v>
+      </c>
+      <c r="I27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H28" t="s">
+        <v>63</v>
+      </c>
+      <c r="I28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H29" t="s">
+        <v>63</v>
+      </c>
+      <c r="I29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H30" t="s">
+        <v>60</v>
+      </c>
+      <c r="I30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H31" t="s">
+        <v>63</v>
+      </c>
+      <c r="I31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>